--- a/public/import/weekly_template (3).xlsx
+++ b/public/import/weekly_template (3).xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="900" windowWidth="19575" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" forceFullCalc="1"/>
+  <calcPr calcId="152511" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -31,57 +36,39 @@
     <t>value_plan_result</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Audit Sidak Masker</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>Pemeriksaan pengajuan nota manual fisik &amp; approval Group ATK</t>
-  </si>
-  <si>
-    <t>Pengarsiapan Dokumen Audit, BAP, Bukti-bukti Temuan Kasus</t>
-  </si>
-  <si>
-    <t>Monitoring dan Melayani Hotline Pengaduan melalui Chat/telepon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring Briefing harian Internal Audit </t>
-  </si>
-  <si>
-    <t>Monitoring LHP</t>
-  </si>
-  <si>
-    <t>Audit mutasi bank harian.</t>
-  </si>
-  <si>
-    <t>Audit mutasi bank Mei MSI</t>
-  </si>
-  <si>
-    <t>Audit mutasi bank Mei Toko Mas An An.</t>
-  </si>
-  <si>
-    <t>Rekap KPI Internal Audit Bulan Mei 2022</t>
-  </si>
-  <si>
-    <t>Pengiriman rencana kerja &amp; realisasi todolist tepat waktu</t>
-  </si>
-  <si>
-    <t>Membuat &amp; Menyerahkan hasil pengerjaan Audit finance</t>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>PEMERIKSAAN TOKO &amp; DEPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEMERIKSAAN STOCK HP &amp; ACC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOLLOW UP FINDING STATUS OPEN ON PROGRESS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENGIRIMAN RENCANA KERJA &amp; REALISASI TODOLIST TEPAT WAKTU </t>
+  </si>
+  <si>
+    <t>ABSEN &amp; TO DO LIST MENGGUNAKAN TALENTA ABSEN/DND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,9 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,6 +106,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -408,13 +401,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="69.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -433,179 +431,79 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2022</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2022</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:B13" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>